--- a/ValueSet-loinc-cmv-codes.xlsx
+++ b/ValueSet-loinc-cmv-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-01T13:56:53-05:00</t>
+    <t>2024-05-20T10:22:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
